--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Npy-Npy1r.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Npy-Npy1r.xlsx
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.926322666666667</v>
+        <v>0.8200883333333334</v>
       </c>
       <c r="H2">
-        <v>23.778968</v>
+        <v>2.460265</v>
       </c>
       <c r="I2">
-        <v>0.7593601911550306</v>
+        <v>0.2405117342909232</v>
       </c>
       <c r="J2">
-        <v>0.7593601911550305</v>
+        <v>0.2405117342909232</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.7702303333333332</v>
+        <v>0.352656</v>
       </c>
       <c r="N2">
-        <v>2.310691</v>
+        <v>1.057968</v>
       </c>
       <c r="O2">
-        <v>0.3232365410491863</v>
+        <v>0.2868677567428842</v>
       </c>
       <c r="P2">
-        <v>0.3232365410491863</v>
+        <v>0.2868677567428842</v>
       </c>
       <c r="Q2">
-        <v>6.105094149654222</v>
+        <v>0.2892090712800001</v>
       </c>
       <c r="R2">
-        <v>54.94584734688799</v>
+        <v>2.60288164152</v>
       </c>
       <c r="S2">
-        <v>0.245452961599401</v>
+        <v>0.06899506168637774</v>
       </c>
       <c r="T2">
-        <v>0.2454529615994009</v>
+        <v>0.06899506168637774</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.926322666666667</v>
+        <v>0.8200883333333334</v>
       </c>
       <c r="H3">
-        <v>23.778968</v>
+        <v>2.460265</v>
       </c>
       <c r="I3">
-        <v>0.7593601911550306</v>
+        <v>0.2405117342909232</v>
       </c>
       <c r="J3">
-        <v>0.7593601911550305</v>
+        <v>0.2405117342909232</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -626,22 +626,22 @@
         <v>0.200537</v>
       </c>
       <c r="O3">
-        <v>0.02805259821948529</v>
+        <v>0.05437555704326383</v>
       </c>
       <c r="P3">
-        <v>0.02805259821948528</v>
+        <v>0.05437555704326383</v>
       </c>
       <c r="Q3">
-        <v>0.5298403228684444</v>
+        <v>0.05481935136722223</v>
       </c>
       <c r="R3">
-        <v>4.768562905815999</v>
+        <v>0.493374162305</v>
       </c>
       <c r="S3">
-        <v>0.02130202634634362</v>
+        <v>0.01307795952751041</v>
       </c>
       <c r="T3">
-        <v>0.02130202634634361</v>
+        <v>0.01307795952751041</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.926322666666667</v>
+        <v>0.8200883333333334</v>
       </c>
       <c r="H4">
-        <v>23.778968</v>
+        <v>2.460265</v>
       </c>
       <c r="I4">
-        <v>0.7593601911550306</v>
+        <v>0.2405117342909232</v>
       </c>
       <c r="J4">
-        <v>0.7593601911550305</v>
+        <v>0.2405117342909232</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>1.537241</v>
+        <v>0.050715</v>
       </c>
       <c r="N4">
-        <v>4.611723</v>
+        <v>0.152145</v>
       </c>
       <c r="O4">
-        <v>0.6451219097650774</v>
+        <v>0.04125407843114925</v>
       </c>
       <c r="P4">
-        <v>0.6451219097650773</v>
+        <v>0.04125407843114925</v>
       </c>
       <c r="Q4">
-        <v>12.18466818242933</v>
+        <v>0.04159077982500001</v>
       </c>
       <c r="R4">
-        <v>109.662013641864</v>
+        <v>0.374317018425</v>
       </c>
       <c r="S4">
-        <v>0.4898798967175076</v>
+        <v>0.009922089950049473</v>
       </c>
       <c r="T4">
-        <v>0.4898798967175075</v>
+        <v>0.009922089950049472</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +717,7 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,46 +726,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.926322666666667</v>
+        <v>0.8200883333333334</v>
       </c>
       <c r="H5">
-        <v>23.778968</v>
+        <v>2.460265</v>
       </c>
       <c r="I5">
-        <v>0.7593601911550306</v>
+        <v>0.2405117342909232</v>
       </c>
       <c r="J5">
-        <v>0.7593601911550305</v>
+        <v>0.2405117342909232</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.008552000000000001</v>
+        <v>0.7591163333333334</v>
       </c>
       <c r="N5">
-        <v>0.025656</v>
+        <v>2.277349</v>
       </c>
       <c r="O5">
-        <v>0.003588950966251188</v>
+        <v>0.6175026077827028</v>
       </c>
       <c r="P5">
-        <v>0.003588950966251188</v>
+        <v>0.6175026077827028</v>
       </c>
       <c r="Q5">
-        <v>0.06778591144533334</v>
+        <v>0.6225424486094445</v>
       </c>
       <c r="R5">
-        <v>0.6100732030080001</v>
+        <v>5.602882037485</v>
       </c>
       <c r="S5">
-        <v>0.002725306491778534</v>
+        <v>0.1485166231269855</v>
       </c>
       <c r="T5">
-        <v>0.002725306491778533</v>
+        <v>0.1485166231269855</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>2.589676</v>
+      </c>
+      <c r="H6">
+        <v>7.769028</v>
+      </c>
+      <c r="I6">
+        <v>0.7594882657090768</v>
+      </c>
+      <c r="J6">
+        <v>0.7594882657090768</v>
+      </c>
+      <c r="K6">
         <v>2</v>
       </c>
-      <c r="F6">
+      <c r="L6">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G6">
-        <v>2.511836666666667</v>
-      </c>
-      <c r="H6">
-        <v>7.53551</v>
-      </c>
-      <c r="I6">
-        <v>0.2406398088449694</v>
-      </c>
-      <c r="J6">
-        <v>0.2406398088449694</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M6">
-        <v>0.7702303333333332</v>
+        <v>0.352656</v>
       </c>
       <c r="N6">
-        <v>2.310691</v>
+        <v>1.057968</v>
       </c>
       <c r="O6">
-        <v>0.3232365410491863</v>
+        <v>0.2868677567428842</v>
       </c>
       <c r="P6">
-        <v>0.3232365410491863</v>
+        <v>0.2868677567428842</v>
       </c>
       <c r="Q6">
-        <v>1.934692793045556</v>
+        <v>0.913264779456</v>
       </c>
       <c r="R6">
-        <v>17.41223513741</v>
+        <v>8.219383015104</v>
       </c>
       <c r="S6">
-        <v>0.0777835794497853</v>
+        <v>0.2178726950565064</v>
       </c>
       <c r="T6">
-        <v>0.07778357944978528</v>
+        <v>0.2178726950565064</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,22 +844,22 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>2.511836666666667</v>
+        <v>2.589676</v>
       </c>
       <c r="H7">
-        <v>7.53551</v>
+        <v>7.769028</v>
       </c>
       <c r="I7">
-        <v>0.2406398088449694</v>
+        <v>0.7594882657090768</v>
       </c>
       <c r="J7">
-        <v>0.2406398088449694</v>
+        <v>0.7594882657090768</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -874,22 +874,22 @@
         <v>0.200537</v>
       </c>
       <c r="O7">
-        <v>0.02805259821948529</v>
+        <v>0.05437555704326383</v>
       </c>
       <c r="P7">
-        <v>0.02805259821948528</v>
+        <v>0.05437555704326383</v>
       </c>
       <c r="Q7">
-        <v>0.1679053965411111</v>
+        <v>0.1731086186706667</v>
       </c>
       <c r="R7">
-        <v>1.51114856887</v>
+        <v>1.557977568036</v>
       </c>
       <c r="S7">
-        <v>0.00675057187314167</v>
+        <v>0.04129759751575342</v>
       </c>
       <c r="T7">
-        <v>0.006750571873141668</v>
+        <v>0.04129759751575342</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,55 +903,55 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>2.511836666666667</v>
+        <v>2.589676</v>
       </c>
       <c r="H8">
-        <v>7.53551</v>
+        <v>7.769028</v>
       </c>
       <c r="I8">
-        <v>0.2406398088449694</v>
+        <v>0.7594882657090768</v>
       </c>
       <c r="J8">
-        <v>0.2406398088449694</v>
+        <v>0.7594882657090768</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>1.537241</v>
+        <v>0.050715</v>
       </c>
       <c r="N8">
-        <v>4.611723</v>
+        <v>0.152145</v>
       </c>
       <c r="O8">
-        <v>0.6451219097650774</v>
+        <v>0.04125407843114925</v>
       </c>
       <c r="P8">
-        <v>0.6451219097650773</v>
+        <v>0.04125407843114925</v>
       </c>
       <c r="Q8">
-        <v>3.861298309303333</v>
+        <v>0.13133541834</v>
       </c>
       <c r="R8">
-        <v>34.75168478373</v>
+        <v>1.18201876506</v>
       </c>
       <c r="S8">
-        <v>0.1552420130475698</v>
+        <v>0.03133198848109978</v>
       </c>
       <c r="T8">
-        <v>0.1552420130475698</v>
+        <v>0.03133198848109978</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,55 +965,55 @@
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>2.511836666666667</v>
+        <v>2.589676</v>
       </c>
       <c r="H9">
-        <v>7.53551</v>
+        <v>7.769028</v>
       </c>
       <c r="I9">
-        <v>0.2406398088449694</v>
+        <v>0.7594882657090768</v>
       </c>
       <c r="J9">
-        <v>0.2406398088449694</v>
+        <v>0.7594882657090768</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.008552000000000001</v>
+        <v>0.7591163333333334</v>
       </c>
       <c r="N9">
-        <v>0.025656</v>
+        <v>2.277349</v>
       </c>
       <c r="O9">
-        <v>0.003588950966251188</v>
+        <v>0.6175026077827028</v>
       </c>
       <c r="P9">
-        <v>0.003588950966251188</v>
+        <v>0.6175026077827028</v>
       </c>
       <c r="Q9">
-        <v>0.02148122717333334</v>
+        <v>1.965865349641333</v>
       </c>
       <c r="R9">
-        <v>0.19333104456</v>
+        <v>17.692788146772</v>
       </c>
       <c r="S9">
-        <v>0.0008636444744726542</v>
+        <v>0.4689859846557172</v>
       </c>
       <c r="T9">
-        <v>0.0008636444744726541</v>
+        <v>0.4689859846557172</v>
       </c>
     </row>
   </sheetData>
